--- a/data/raw_data/20221219_scholarid.xlsx
+++ b/data/raw_data/20221219_scholarid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYOD-ADMIN\surfdrive\Shared\INSNA2023_workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radbouduniversiteit-my.sharepoint.com/personal/jos_slabbekoorn_ru_nl/Documents/project - network/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5CF863-3610-4852-80F7-C74AF404FD49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{AD5CF863-3610-4852-80F7-C74AF404FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19BDA38C-D916-5949-880B-7FED50181C1C}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="504" windowWidth="28044" windowHeight="15624" activeTab="1" xr2:uid="{3A988D9E-DED3-CC44-BA34-7C0A3852FE51}"/>
+    <workbookView xWindow="-20" yWindow="900" windowWidth="18000" windowHeight="21120" xr2:uid="{3A988D9E-DED3-CC44-BA34-7C0A3852FE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sociologie" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,257 +58,122 @@
   <commentList>
     <comment ref="C19" authorId="0" shapeId="0" xr:uid="{B7D66074-EC91-5445-B11C-33B23679227D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Nog email van de uni in luxemburg, geen uu email vindbaar</t>
-        </r>
       </text>
     </comment>
     <comment ref="D22" authorId="1" shapeId="0" xr:uid="{B51C2D33-7D36-3646-87B5-395D38F8DE76}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Pas 3 maanden afgestudeerd, nog geen email vindbaar</t>
-        </r>
       </text>
     </comment>
     <comment ref="C54" authorId="2" shapeId="0" xr:uid="{1F00AFC7-BEAB-DB48-B692-45F9D011D4AC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Nog geen uu mail</t>
-        </r>
       </text>
     </comment>
     <comment ref="B136" authorId="3" shapeId="0" xr:uid="{AB89362A-BBA5-8048-9151-F57EB23DC994}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Op haar LinkedIn wordt RUG niet meer genoemd</t>
-        </r>
       </text>
     </comment>
     <comment ref="D149" authorId="4" shapeId="0" xr:uid="{DCEB5665-A08A-574D-B329-41FD0BE9EA21}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Volgens Google Scholar is hij inmiddels postdoc fellow bij IAST (Toulouse)</t>
-        </r>
       </text>
     </comment>
     <comment ref="C155" authorId="5" shapeId="0" xr:uid="{0FB2A446-F2A8-A64C-BCD3-BADA48F8F595}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Heeft ook mail van tilburg </t>
-        </r>
       </text>
     </comment>
     <comment ref="A162" authorId="6" shapeId="0" xr:uid="{46E44863-E4C5-D74B-AE23-69A5EEDD5832}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Werkt Marcel niet voor de UU? Alleen staat hij daar ook niet op de website</t>
-        </r>
       </text>
     </comment>
     <comment ref="D183" authorId="7" shapeId="0" xr:uid="{AE1D23D6-90CF-614F-9B3C-3ADA268A0F84}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Zegt dat hij PhD doet bij BEHAVE project aan TU Delft, maar op Google Scholar staat hij geregistreerd bij RUG/ICS.</t>
-        </r>
       </text>
     </comment>
     <comment ref="D218" authorId="8" shapeId="0" xr:uid="{39D78EF3-E7C1-F74D-818F-4971CB74AE5B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Beetje onduidelijk wat haar functie precies is</t>
-        </r>
       </text>
     </comment>
     <comment ref="D239" authorId="9" shapeId="0" xr:uid="{9CEF15AC-4C09-3F43-AADE-EFC4753846C1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Snap niet helemaal hoe ze dit bedoelt op haar LinkedIn. Ze heeft het over zichzelf als phd, maar er staat ook postdoc en ze werkt al bijna 6 jaar voor de uva</t>
-        </r>
       </text>
     </comment>
     <comment ref="D263" authorId="10" shapeId="0" xr:uid="{537F3066-F7FE-9046-9330-895AC6621575}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Werkt bij een onderzoeksbureau maar onduidelijk wat zijn functie aan de uva is</t>
-        </r>
       </text>
     </comment>
     <comment ref="D293" authorId="11" shapeId="0" xr:uid="{073D8796-91AD-4A49-A3BE-5FFD2AE9DE27}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Ze is prof dr, maar staat als onderzoeker op de website</t>
-        </r>
       </text>
     </comment>
     <comment ref="D351" authorId="12" shapeId="0" xr:uid="{699D65B2-11AB-FA45-AA3B-A8428E62BF15}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Heeft een prof titel, maar staat zo op de site</t>
-        </r>
       </text>
     </comment>
     <comment ref="D354" authorId="13" shapeId="0" xr:uid="{BA4D1C59-FE07-EC44-BAA7-601F0956C144}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Heeft prof titel</t>
-        </r>
       </text>
     </comment>
     <comment ref="D415" authorId="14" shapeId="0" xr:uid="{34E7B279-5D92-8248-AFBD-AB02696E0D1F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Op de website staat zowel dat ze een pudeur is als assistant professor, maar de phd is al gestart in 2012. Ik ga dus uit van opwaartse mobiliteit</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -335,223 +200,106 @@
   <commentList>
     <comment ref="D24" authorId="0" shapeId="0" xr:uid="{33F6D1BC-C668-704F-B981-8829ADDD5A50}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Kan nergens vinden wie hij is/wat hij doet</t>
-        </r>
       </text>
     </comment>
     <comment ref="B40" authorId="1" shapeId="0" xr:uid="{9DBC154A-139D-6548-93C0-AEB9EF73423A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Op zijn twitter noemt hij alleen deze 2 uni’s, RU wordt niet genoemd</t>
-        </r>
       </text>
     </comment>
     <comment ref="D160" authorId="2" shapeId="0" xr:uid="{B99B1C82-80AB-3548-B8C0-DDF977B88065}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Op zijn eigen Website zegt hij nu niet meer te werken in Leiden, maar voor Georgetown University</t>
-        </r>
       </text>
     </comment>
     <comment ref="D168" authorId="3" shapeId="0" xr:uid="{8DF733E6-AC5B-2547-A065-A55F325361C9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Werkt vgm mee aan een project, heeft geen phd gedaan maar master gehaald</t>
-        </r>
       </text>
     </comment>
     <comment ref="D170" authorId="4" shapeId="0" xr:uid="{3E7779AF-BBED-A54F-8734-22A281B3ABCF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Kan niet vinden wat zij doet</t>
-        </r>
       </text>
     </comment>
     <comment ref="B191" authorId="5" shapeId="0" xr:uid="{9A902A93-B915-3646-9DBA-12FA51DC23B8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Volgens zijn LinkedIn doet hij de phd in Gent en is de UvA daar niet bij betrokken (daar heeft hij zijn ba en ma gedaan)</t>
-        </r>
       </text>
     </comment>
     <comment ref="D225" authorId="6" shapeId="0" xr:uid="{484C4A17-64E1-8A41-BE82-AB08A8B6D98E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Kan wel een onderzoeker op statistisch gebied vinden die verbonden is aan de VU, maar niet aan de UvA</t>
-        </r>
       </text>
     </comment>
     <comment ref="D232" authorId="7" shapeId="0" xr:uid="{A9D3B856-F8BB-134B-A46D-CAAFA66FDD8A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Erg veel mensen met dezelfde naam</t>
-        </r>
       </text>
     </comment>
     <comment ref="D238" authorId="8" shapeId="0" xr:uid="{D0A6D4FA-F0B6-F649-B971-159C83041FD9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Volgens zijn Twitter is hij nog gewoon een rema student</t>
-        </r>
       </text>
     </comment>
     <comment ref="D251" authorId="9" shapeId="0" xr:uid="{68D71F96-4556-E448-BAAD-0A6672200412}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Begrijp niet goed wat zijn functie is. Onderzoeker en docent? Hij heeft zijn Phd al lang geleden gehaald en geeft les</t>
-        </r>
       </text>
     </comment>
     <comment ref="D277" authorId="10" shapeId="0" xr:uid="{A7BD1C12-2573-4046-9E58-AC70A1570302}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Phd doet ze in Turkije, haar precieze link met de UvA kan ik niet vinden</t>
-        </r>
       </text>
     </comment>
     <comment ref="D290" authorId="11" shapeId="0" xr:uid="{FBA5B63D-3C04-EA4B-9FCF-08A252426469}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Ook lecturer hogeschool Rdam</t>
-        </r>
       </text>
     </comment>
     <comment ref="D314" authorId="12" shapeId="0" xr:uid="{4F743E26-651C-C845-8D3E-C4BA3B9C9F64}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Is wel prof</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -7222,7 +6970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7231,7 +6979,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7259,9 +7006,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7299,7 +7046,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7405,7 +7152,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7547,7 +7294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7651,20 +7398,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6AA79E-5EF9-7441-958B-3CCD3A4ECC32}">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:D201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1257</v>
       </c>
@@ -7681,7 +7428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1197</v>
       </c>
@@ -7698,7 +7445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1198</v>
       </c>
@@ -7715,7 +7462,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1199</v>
       </c>
@@ -7732,7 +7479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1200</v>
       </c>
@@ -7749,7 +7496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1201</v>
       </c>
@@ -7766,7 +7513,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1202</v>
       </c>
@@ -7780,7 +7527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1203</v>
       </c>
@@ -7794,7 +7541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1204</v>
       </c>
@@ -7808,7 +7555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1205</v>
       </c>
@@ -7825,7 +7572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1206</v>
       </c>
@@ -7842,7 +7589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1207</v>
       </c>
@@ -7859,7 +7606,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1208</v>
       </c>
@@ -7876,7 +7623,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1209</v>
       </c>
@@ -7893,7 +7640,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1210</v>
       </c>
@@ -7910,7 +7657,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1211</v>
       </c>
@@ -7924,7 +7671,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1212</v>
       </c>
@@ -7941,7 +7688,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1213</v>
       </c>
@@ -7955,7 +7702,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1214</v>
       </c>
@@ -7972,7 +7719,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1215</v>
       </c>
@@ -7989,7 +7736,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1216</v>
       </c>
@@ -8003,7 +7750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1217</v>
       </c>
@@ -8014,7 +7761,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1218</v>
       </c>
@@ -8031,7 +7778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1219</v>
       </c>
@@ -8042,7 +7789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1220</v>
       </c>
@@ -8059,7 +7806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1221</v>
       </c>
@@ -8073,7 +7820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1222</v>
       </c>
@@ -8090,7 +7837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>798</v>
       </c>
@@ -8107,7 +7854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1223</v>
       </c>
@@ -8124,7 +7871,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1224</v>
       </c>
@@ -8138,7 +7885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1225</v>
       </c>
@@ -8152,7 +7899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1226</v>
       </c>
@@ -8169,7 +7916,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1227</v>
       </c>
@@ -8186,7 +7933,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1228</v>
       </c>
@@ -8200,7 +7947,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1229</v>
       </c>
@@ -8217,7 +7964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1230</v>
       </c>
@@ -8231,7 +7978,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1231</v>
       </c>
@@ -8248,7 +7995,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1232</v>
       </c>
@@ -8262,7 +8009,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1233</v>
       </c>
@@ -8279,7 +8026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1234</v>
       </c>
@@ -8296,7 +8043,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1235</v>
       </c>
@@ -8313,7 +8060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1236</v>
       </c>
@@ -8330,7 +8077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1237</v>
       </c>
@@ -8347,7 +8094,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1238</v>
       </c>
@@ -8364,7 +8111,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1239</v>
       </c>
@@ -8378,7 +8125,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1240</v>
       </c>
@@ -8392,7 +8139,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1241</v>
       </c>
@@ -8406,7 +8153,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1242</v>
       </c>
@@ -8420,7 +8167,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1243</v>
       </c>
@@ -8434,7 +8181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1244</v>
       </c>
@@ -8451,7 +8198,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1245</v>
       </c>
@@ -8468,7 +8215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1246</v>
       </c>
@@ -8485,7 +8232,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -8502,7 +8249,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1247</v>
       </c>
@@ -8516,7 +8263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1248</v>
       </c>
@@ -8533,7 +8280,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1249</v>
       </c>
@@ -8547,7 +8294,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1250</v>
       </c>
@@ -8564,69 +8311,69 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1251</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1252</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1253</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1254</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1255</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1256</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -8644,7 +8391,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -8662,7 +8409,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -8680,7 +8427,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8445,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -8716,7 +8463,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8734,7 +8481,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -8752,7 +8499,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -8770,7 +8517,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -8788,7 +8535,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -8806,7 +8553,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +8571,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8589,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -8860,7 +8607,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -8878,7 +8625,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -8896,7 +8643,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -8914,7 +8661,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -8932,7 +8679,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -8950,7 +8697,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -8968,7 +8715,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -8986,7 +8733,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -9004,7 +8751,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -9022,7 +8769,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -9040,7 +8787,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -9052,7 +8799,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -9070,7 +8817,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -9082,7 +8829,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -9097,7 +8844,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -9115,7 +8862,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -9130,7 +8877,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -9145,7 +8892,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -9163,7 +8910,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -9178,7 +8925,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -9196,7 +8943,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -9211,7 +8958,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>176</v>
       </c>
@@ -9226,7 +8973,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -9244,7 +8991,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9262,7 +9009,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>177</v>
       </c>
@@ -9277,7 +9024,7 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -9295,7 +9042,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9313,7 +9060,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -9324,7 +9071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -9342,7 +9089,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -9356,7 +9103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -9370,7 +9117,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -9384,7 +9131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -9395,7 +9142,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -9412,7 +9159,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -9426,7 +9173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -9443,7 +9190,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>244</v>
       </c>
@@ -9460,7 +9207,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -9474,7 +9221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>249</v>
       </c>
@@ -9485,7 +9232,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>251</v>
       </c>
@@ -9496,7 +9243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>253</v>
       </c>
@@ -9513,7 +9260,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>255</v>
       </c>
@@ -9527,7 +9274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>257</v>
       </c>
@@ -9541,7 +9288,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>259</v>
       </c>
@@ -9552,7 +9299,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>261</v>
       </c>
@@ -9569,7 +9316,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>263</v>
       </c>
@@ -9586,7 +9333,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -9600,7 +9347,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>267</v>
       </c>
@@ -9617,7 +9364,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>269</v>
       </c>
@@ -9634,7 +9381,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>271</v>
       </c>
@@ -9651,7 +9398,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>273</v>
       </c>
@@ -9668,7 +9415,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>275</v>
       </c>
@@ -9685,7 +9432,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -9702,7 +9449,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>281</v>
       </c>
@@ -9719,7 +9466,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>283</v>
       </c>
@@ -9736,7 +9483,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>285</v>
       </c>
@@ -9750,7 +9497,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>287</v>
       </c>
@@ -9764,7 +9511,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -9781,7 +9528,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -9798,7 +9545,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>293</v>
       </c>
@@ -9812,7 +9559,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -9826,7 +9573,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>298</v>
       </c>
@@ -9843,7 +9590,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>300</v>
       </c>
@@ -9860,7 +9607,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -9874,7 +9621,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>304</v>
       </c>
@@ -9891,7 +9638,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>306</v>
       </c>
@@ -9902,7 +9649,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>308</v>
       </c>
@@ -9919,7 +9666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>311</v>
       </c>
@@ -9933,7 +9680,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>313</v>
       </c>
@@ -9950,7 +9697,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>315</v>
       </c>
@@ -9967,7 +9714,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>317</v>
       </c>
@@ -9984,7 +9731,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -9998,7 +9745,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>321</v>
       </c>
@@ -10015,7 +9762,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>323</v>
       </c>
@@ -10029,7 +9776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>325</v>
       </c>
@@ -10043,7 +9790,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>327</v>
       </c>
@@ -10060,7 +9807,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>329</v>
       </c>
@@ -10077,7 +9824,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>332</v>
       </c>
@@ -10094,7 +9841,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>334</v>
       </c>
@@ -10108,7 +9855,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -10119,7 +9866,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>338</v>
       </c>
@@ -10133,7 +9880,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>340</v>
       </c>
@@ -10147,7 +9894,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>342</v>
       </c>
@@ -10158,7 +9905,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -10175,7 +9922,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>430</v>
       </c>
@@ -10192,7 +9939,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>348</v>
       </c>
@@ -10209,7 +9956,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>350</v>
       </c>
@@ -10223,7 +9970,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>352</v>
       </c>
@@ -10240,7 +9987,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>354</v>
       </c>
@@ -10254,7 +10001,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>356</v>
       </c>
@@ -10271,7 +10018,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>358</v>
       </c>
@@ -10288,7 +10035,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>360</v>
       </c>
@@ -10302,7 +10049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>362</v>
       </c>
@@ -10316,7 +10063,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>365</v>
       </c>
@@ -10330,7 +10077,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>367</v>
       </c>
@@ -10347,7 +10094,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>369</v>
       </c>
@@ -10361,7 +10108,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>371</v>
       </c>
@@ -10375,7 +10122,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>373</v>
       </c>
@@ -10392,7 +10139,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>375</v>
       </c>
@@ -10406,7 +10153,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>377</v>
       </c>
@@ -10423,7 +10170,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>379</v>
       </c>
@@ -10440,7 +10187,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>381</v>
       </c>
@@ -10457,7 +10204,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>383</v>
       </c>
@@ -10474,7 +10221,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>386</v>
       </c>
@@ -10491,7 +10238,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>388</v>
       </c>
@@ -10508,7 +10255,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>390</v>
       </c>
@@ -10525,7 +10272,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>392</v>
       </c>
@@ -10539,7 +10286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>394</v>
       </c>
@@ -10556,7 +10303,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>396</v>
       </c>
@@ -10570,7 +10317,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>399</v>
       </c>
@@ -10587,7 +10334,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>401</v>
       </c>
@@ -10601,7 +10348,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>403</v>
       </c>
@@ -10612,7 +10359,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>405</v>
       </c>
@@ -10629,7 +10376,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>407</v>
       </c>
@@ -10643,7 +10390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>409</v>
       </c>
@@ -10657,7 +10404,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>411</v>
       </c>
@@ -10671,7 +10418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>413</v>
       </c>
@@ -10688,7 +10435,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>415</v>
       </c>
@@ -10705,7 +10452,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>417</v>
       </c>
@@ -10719,7 +10466,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -10736,7 +10483,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -10750,7 +10497,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>423</v>
       </c>
@@ -10764,7 +10511,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>425</v>
       </c>
@@ -10778,7 +10525,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>435</v>
       </c>
@@ -10792,7 +10539,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>428</v>
       </c>
@@ -10809,7 +10556,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>489</v>
       </c>
@@ -10826,7 +10573,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>491</v>
       </c>
@@ -10843,7 +10590,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>493</v>
       </c>
@@ -10857,7 +10604,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>629</v>
       </c>
@@ -10874,7 +10621,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>495</v>
       </c>
@@ -10891,7 +10638,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>497</v>
       </c>
@@ -10905,7 +10652,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>499</v>
       </c>
@@ -10922,7 +10669,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -10939,7 +10686,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>503</v>
       </c>
@@ -10956,7 +10703,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>505</v>
       </c>
@@ -10973,7 +10720,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>507</v>
       </c>
@@ -10987,7 +10734,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>509</v>
       </c>
@@ -11001,7 +10748,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>511</v>
       </c>
@@ -11015,7 +10762,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>513</v>
       </c>
@@ -11029,7 +10776,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>515</v>
       </c>
@@ -11046,7 +10793,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>517</v>
       </c>
@@ -11063,7 +10810,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -11077,7 +10824,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>521</v>
       </c>
@@ -11094,7 +10841,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>523</v>
       </c>
@@ -11111,7 +10858,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>525</v>
       </c>
@@ -11128,7 +10875,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>527</v>
       </c>
@@ -11142,7 +10889,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>529</v>
       </c>
@@ -11159,7 +10906,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>531</v>
       </c>
@@ -11176,7 +10923,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>533</v>
       </c>
@@ -11193,7 +10940,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>535</v>
       </c>
@@ -11207,7 +10954,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>537</v>
       </c>
@@ -11221,7 +10968,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>539</v>
       </c>
@@ -11238,7 +10985,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>541</v>
       </c>
@@ -11252,7 +10999,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>543</v>
       </c>
@@ -11263,7 +11010,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>545</v>
       </c>
@@ -11280,7 +11027,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>547</v>
       </c>
@@ -11294,7 +11041,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>549</v>
       </c>
@@ -11308,7 +11055,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>551</v>
       </c>
@@ -11319,7 +11066,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>553</v>
       </c>
@@ -11336,7 +11083,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>555</v>
       </c>
@@ -11353,7 +11100,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>557</v>
       </c>
@@ -11370,7 +11117,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>559</v>
       </c>
@@ -11387,7 +11134,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -11404,7 +11151,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>563</v>
       </c>
@@ -11421,7 +11168,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>565</v>
       </c>
@@ -11438,7 +11185,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>567</v>
       </c>
@@ -11452,7 +11199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>569</v>
       </c>
@@ -11469,7 +11216,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>571</v>
       </c>
@@ -11483,7 +11230,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>573</v>
       </c>
@@ -11500,7 +11247,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>575</v>
       </c>
@@ -11517,7 +11264,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>577</v>
       </c>
@@ -11534,7 +11281,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>579</v>
       </c>
@@ -11551,7 +11298,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>581</v>
       </c>
@@ -11568,7 +11315,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>583</v>
       </c>
@@ -11582,7 +11329,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>585</v>
       </c>
@@ -11596,7 +11343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>587</v>
       </c>
@@ -11610,7 +11357,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>589</v>
       </c>
@@ -11624,7 +11371,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>591</v>
       </c>
@@ -11638,7 +11385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>593</v>
       </c>
@@ -11655,7 +11402,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>595</v>
       </c>
@@ -11669,7 +11416,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>597</v>
       </c>
@@ -11686,7 +11433,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>599</v>
       </c>
@@ -11703,7 +11450,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>601</v>
       </c>
@@ -11717,7 +11464,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>603</v>
       </c>
@@ -11734,7 +11481,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>605</v>
       </c>
@@ -11751,7 +11498,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>607</v>
       </c>
@@ -11768,7 +11515,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>609</v>
       </c>
@@ -11785,7 +11532,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>611</v>
       </c>
@@ -11802,7 +11549,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>613</v>
       </c>
@@ -11816,7 +11563,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>615</v>
       </c>
@@ -11827,7 +11574,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>617</v>
       </c>
@@ -11844,7 +11591,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>619</v>
       </c>
@@ -11861,7 +11608,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>621</v>
       </c>
@@ -11878,7 +11625,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>623</v>
       </c>
@@ -11895,7 +11642,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>625</v>
       </c>
@@ -11912,7 +11659,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>687</v>
       </c>
@@ -11926,7 +11673,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>689</v>
       </c>
@@ -11940,7 +11687,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>691</v>
       </c>
@@ -11954,7 +11701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>693</v>
       </c>
@@ -11968,7 +11715,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>695</v>
       </c>
@@ -11982,7 +11729,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>697</v>
       </c>
@@ -11999,7 +11746,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>699</v>
       </c>
@@ -12016,7 +11763,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>701</v>
       </c>
@@ -12033,7 +11780,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>703</v>
       </c>
@@ -12050,7 +11797,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>705</v>
       </c>
@@ -12064,7 +11811,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>707</v>
       </c>
@@ -12078,7 +11825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>709</v>
       </c>
@@ -12095,7 +11842,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>711</v>
       </c>
@@ -12112,7 +11859,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>713</v>
       </c>
@@ -12129,7 +11876,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>715</v>
       </c>
@@ -12143,7 +11890,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>717</v>
       </c>
@@ -12157,7 +11904,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>719</v>
       </c>
@@ -12174,7 +11921,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>721</v>
       </c>
@@ -12191,7 +11938,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>723</v>
       </c>
@@ -12205,7 +11952,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>725</v>
       </c>
@@ -12219,7 +11966,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>727</v>
       </c>
@@ -12233,7 +11980,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>729</v>
       </c>
@@ -12250,7 +11997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>731</v>
       </c>
@@ -12267,7 +12014,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>733</v>
       </c>
@@ -12281,7 +12028,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>735</v>
       </c>
@@ -12295,7 +12042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>737</v>
       </c>
@@ -12312,7 +12059,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>739</v>
       </c>
@@ -12326,7 +12073,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>741</v>
       </c>
@@ -12343,7 +12090,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>743</v>
       </c>
@@ -12360,7 +12107,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>745</v>
       </c>
@@ -12374,7 +12121,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>747</v>
       </c>
@@ -12391,7 +12138,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>749</v>
       </c>
@@ -12405,7 +12152,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>751</v>
       </c>
@@ -12422,7 +12169,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>753</v>
       </c>
@@ -12436,7 +12183,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>755</v>
       </c>
@@ -12450,7 +12197,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>757</v>
       </c>
@@ -12464,7 +12211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>759</v>
       </c>
@@ -12478,7 +12225,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>761</v>
       </c>
@@ -12495,7 +12242,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>763</v>
       </c>
@@ -12512,7 +12259,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>765</v>
       </c>
@@ -12529,7 +12276,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>767</v>
       </c>
@@ -12546,7 +12293,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>769</v>
       </c>
@@ -12563,7 +12310,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>771</v>
       </c>
@@ -12577,7 +12324,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>920</v>
       </c>
@@ -12591,7 +12338,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>774</v>
       </c>
@@ -12608,7 +12355,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>776</v>
       </c>
@@ -12625,7 +12372,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>778</v>
       </c>
@@ -12639,7 +12386,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>780</v>
       </c>
@@ -12656,7 +12403,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>782</v>
       </c>
@@ -12670,7 +12417,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>784</v>
       </c>
@@ -12687,7 +12434,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>786</v>
       </c>
@@ -12701,7 +12448,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>788</v>
       </c>
@@ -12715,7 +12462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>790</v>
       </c>
@@ -12729,7 +12476,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>792</v>
       </c>
@@ -12746,7 +12493,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>794</v>
       </c>
@@ -12760,7 +12507,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>796</v>
       </c>
@@ -12774,7 +12521,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>798</v>
       </c>
@@ -12791,7 +12538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>800</v>
       </c>
@@ -12805,7 +12552,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>802</v>
       </c>
@@ -12819,7 +12566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>804</v>
       </c>
@@ -12836,7 +12583,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>806</v>
       </c>
@@ -12850,7 +12597,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>809</v>
       </c>
@@ -12864,7 +12611,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>811</v>
       </c>
@@ -12881,7 +12628,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>813</v>
       </c>
@@ -12898,7 +12645,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>815</v>
       </c>
@@ -12915,7 +12662,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>817</v>
       </c>
@@ -12929,7 +12676,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>819</v>
       </c>
@@ -12943,7 +12690,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>821</v>
       </c>
@@ -12957,7 +12704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>823</v>
       </c>
@@ -12971,7 +12718,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>826</v>
       </c>
@@ -12988,7 +12735,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>828</v>
       </c>
@@ -13002,7 +12749,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>830</v>
       </c>
@@ -13019,7 +12766,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>832</v>
       </c>
@@ -13036,7 +12783,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>835</v>
       </c>
@@ -13050,7 +12797,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>837</v>
       </c>
@@ -13064,7 +12811,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>840</v>
       </c>
@@ -13081,7 +12828,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>842</v>
       </c>
@@ -13095,7 +12842,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>844</v>
       </c>
@@ -13109,7 +12856,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>846</v>
       </c>
@@ -13126,7 +12873,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>849</v>
       </c>
@@ -13140,7 +12887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>851</v>
       </c>
@@ -13154,7 +12901,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>853</v>
       </c>
@@ -13168,7 +12915,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>855</v>
       </c>
@@ -13182,7 +12929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>857</v>
       </c>
@@ -13199,7 +12946,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>859</v>
       </c>
@@ -13216,7 +12963,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>861</v>
       </c>
@@ -13230,7 +12977,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>863</v>
       </c>
@@ -13247,7 +12994,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>865</v>
       </c>
@@ -13264,7 +13011,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>867</v>
       </c>
@@ -13281,7 +13028,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>869</v>
       </c>
@@ -13298,7 +13045,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>871</v>
       </c>
@@ -13315,7 +13062,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>873</v>
       </c>
@@ -13332,7 +13079,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>875</v>
       </c>
@@ -13349,7 +13096,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>877</v>
       </c>
@@ -13366,7 +13113,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>879</v>
       </c>
@@ -13380,7 +13127,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>881</v>
       </c>
@@ -13394,7 +13141,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>883</v>
       </c>
@@ -13411,7 +13158,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>885</v>
       </c>
@@ -13428,7 +13175,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>887</v>
       </c>
@@ -13442,7 +13189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>889</v>
       </c>
@@ -13459,7 +13206,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>891</v>
       </c>
@@ -13476,7 +13223,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>893</v>
       </c>
@@ -13493,7 +13240,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>895</v>
       </c>
@@ -13507,7 +13254,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>897</v>
       </c>
@@ -13521,7 +13268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>952</v>
       </c>
@@ -13538,7 +13285,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>953</v>
       </c>
@@ -13555,7 +13302,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>955</v>
       </c>
@@ -13572,7 +13319,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>956</v>
       </c>
@@ -13589,7 +13336,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>957</v>
       </c>
@@ -13603,7 +13350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>958</v>
       </c>
@@ -13617,7 +13364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>959</v>
       </c>
@@ -13634,7 +13381,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>960</v>
       </c>
@@ -13651,7 +13398,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>961</v>
       </c>
@@ -13668,7 +13415,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>962</v>
       </c>
@@ -13685,7 +13432,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>972</v>
       </c>
@@ -13702,7 +13449,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>974</v>
       </c>
@@ -13719,7 +13466,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>976</v>
       </c>
@@ -13733,7 +13480,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>978</v>
       </c>
@@ -13750,7 +13497,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>980</v>
       </c>
@@ -13764,7 +13511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>982</v>
       </c>
@@ -13781,7 +13528,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>984</v>
       </c>
@@ -13795,7 +13542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>986</v>
       </c>
@@ -13809,7 +13556,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>988</v>
       </c>
@@ -13826,7 +13573,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>990</v>
       </c>
@@ -13843,7 +13590,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>992</v>
       </c>
@@ -13857,7 +13604,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>994</v>
       </c>
@@ -13874,7 +13621,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>996</v>
       </c>
@@ -13891,7 +13638,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>998</v>
       </c>
@@ -13908,7 +13655,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1000</v>
       </c>
@@ -13925,7 +13672,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1002</v>
       </c>
@@ -13942,7 +13689,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1004</v>
       </c>
@@ -13959,7 +13706,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1006</v>
       </c>
@@ -13973,7 +13720,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1008</v>
       </c>
@@ -13990,7 +13737,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1010</v>
       </c>
@@ -14007,7 +13754,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1012</v>
       </c>
@@ -14021,7 +13768,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1014</v>
       </c>
@@ -14038,7 +13785,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1016</v>
       </c>
@@ -14055,7 +13802,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1018</v>
       </c>
@@ -14072,7 +13819,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1020</v>
       </c>
@@ -14089,7 +13836,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1022</v>
       </c>
@@ -14106,7 +13853,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1024</v>
       </c>
@@ -14123,7 +13870,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1026</v>
       </c>
@@ -14140,7 +13887,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1028</v>
       </c>
@@ -14157,7 +13904,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1030</v>
       </c>
@@ -14171,7 +13918,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1032</v>
       </c>
@@ -14188,7 +13935,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1034</v>
       </c>
@@ -14205,7 +13952,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1036</v>
       </c>
@@ -14222,7 +13969,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1038</v>
       </c>
@@ -14236,7 +13983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1040</v>
       </c>
@@ -14253,7 +14000,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1042</v>
       </c>
@@ -14270,7 +14017,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1044</v>
       </c>
@@ -14284,7 +14031,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1047</v>
       </c>
@@ -14301,7 +14048,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1049</v>
       </c>
@@ -14318,7 +14065,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1090</v>
       </c>
@@ -14335,7 +14082,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1092</v>
       </c>
@@ -14349,7 +14096,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1094</v>
       </c>
@@ -14363,7 +14110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1096</v>
       </c>
@@ -14377,7 +14124,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1098</v>
       </c>
@@ -14394,7 +14141,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1100</v>
       </c>
@@ -14408,7 +14155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1102</v>
       </c>
@@ -14425,7 +14172,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1104</v>
       </c>
@@ -14442,7 +14189,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1106</v>
       </c>
@@ -14456,7 +14203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1108</v>
       </c>
@@ -14470,7 +14217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1110</v>
       </c>
@@ -14484,7 +14231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1112</v>
       </c>
@@ -14501,7 +14248,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1114</v>
       </c>
@@ -14515,7 +14262,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1116</v>
       </c>
@@ -14529,7 +14276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1118</v>
       </c>
@@ -14546,7 +14293,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1120</v>
       </c>
@@ -14560,7 +14307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1122</v>
       </c>
@@ -14574,7 +14321,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1124</v>
       </c>
@@ -14588,7 +14335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1126</v>
       </c>
@@ -14605,7 +14352,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1128</v>
       </c>
@@ -14619,7 +14366,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1130</v>
       </c>
@@ -14633,7 +14380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1132</v>
       </c>
@@ -14650,7 +14397,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1135</v>
       </c>
@@ -14664,7 +14411,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1136</v>
       </c>
@@ -14681,7 +14428,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1138</v>
       </c>
@@ -14695,7 +14442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1140</v>
       </c>
@@ -14709,7 +14456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1142</v>
       </c>
@@ -14723,7 +14470,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1144</v>
       </c>
@@ -14737,7 +14484,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1146</v>
       </c>
@@ -14754,7 +14501,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1148</v>
       </c>
@@ -14768,7 +14515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1150</v>
       </c>
@@ -14782,7 +14529,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1152</v>
       </c>
@@ -14799,7 +14546,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1154</v>
       </c>
@@ -14813,7 +14560,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1156</v>
       </c>
@@ -14830,7 +14577,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1158</v>
       </c>
@@ -14847,7 +14594,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1160</v>
       </c>
@@ -14861,7 +14608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1162</v>
       </c>
@@ -14878,7 +14625,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1164</v>
       </c>
@@ -14895,7 +14642,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1166</v>
       </c>
@@ -14912,7 +14659,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1168</v>
       </c>
@@ -14926,7 +14673,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1170</v>
       </c>
@@ -14940,7 +14687,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1172</v>
       </c>
@@ -14954,7 +14701,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1174</v>
       </c>
@@ -14968,7 +14715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1176</v>
       </c>
@@ -14982,7 +14729,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1178</v>
       </c>
@@ -15009,20 +14756,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF942A8-4B64-F64A-A3D3-A22F5FF8FB38}">
   <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H291" sqref="H291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.796875" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
-    <col min="4" max="4" width="24.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1257</v>
       </c>
@@ -15042,7 +14789,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1261</v>
       </c>
@@ -15059,7 +14806,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1264</v>
       </c>
@@ -15076,7 +14823,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1267</v>
       </c>
@@ -15093,14 +14840,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1270</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>1271</v>
       </c>
       <c r="D5" t="s">
@@ -15110,14 +14857,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1273</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>1274</v>
       </c>
       <c r="D6" t="s">
@@ -15127,14 +14874,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1275</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>1276</v>
       </c>
       <c r="D7" t="s">
@@ -15144,14 +14891,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1277</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>1278</v>
       </c>
       <c r="D8" t="s">
@@ -15161,14 +14908,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1279</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>1280</v>
       </c>
       <c r="D9" t="s">
@@ -15181,14 +14928,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1281</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>1282</v>
       </c>
       <c r="D10" t="s">
@@ -15198,14 +14945,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1283</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>1284</v>
       </c>
       <c r="D11" t="s">
@@ -15215,14 +14962,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1285</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>1286</v>
       </c>
       <c r="D12" t="s">
@@ -15232,14 +14979,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1287</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>1288</v>
       </c>
       <c r="D13" t="s">
@@ -15249,14 +14996,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1289</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>1290</v>
       </c>
       <c r="D14" t="s">
@@ -15269,14 +15016,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1291</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>1292</v>
       </c>
       <c r="D15" t="s">
@@ -15289,14 +15036,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1293</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>1294</v>
       </c>
       <c r="D16" t="s">
@@ -15309,14 +15056,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1295</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>1296</v>
       </c>
       <c r="E17" t="s">
@@ -15326,14 +15073,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1300</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>1301</v>
       </c>
       <c r="D18" t="s">
@@ -15346,14 +15093,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1302</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>1303</v>
       </c>
       <c r="D19" t="s">
@@ -15366,14 +15113,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1304</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>1305</v>
       </c>
       <c r="D20" t="s">
@@ -15383,14 +15130,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1306</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>1307</v>
       </c>
       <c r="D21" t="s">
@@ -15400,14 +15147,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1308</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>1309</v>
       </c>
       <c r="D22" t="s">
@@ -15417,14 +15164,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1310</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>1311</v>
       </c>
       <c r="D23" t="s">
@@ -15434,28 +15181,28 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1312</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>1313</v>
       </c>
       <c r="D24" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1316</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>1315</v>
       </c>
       <c r="D25" t="s">
@@ -15468,14 +15215,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1317</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>1318</v>
       </c>
       <c r="D26" t="s">
@@ -15488,14 +15235,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1319</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>1320</v>
       </c>
       <c r="D27" t="s">
@@ -15508,14 +15255,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1321</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>1322</v>
       </c>
       <c r="D28" t="s">
@@ -15525,14 +15272,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1323</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>1324</v>
       </c>
       <c r="D29" t="s">
@@ -15542,14 +15289,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1326</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>1327</v>
       </c>
       <c r="D30" t="s">
@@ -15559,14 +15306,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1328</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>1329</v>
       </c>
       <c r="D31" t="s">
@@ -15579,14 +15326,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1330</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>1331</v>
       </c>
       <c r="D32" t="s">
@@ -15599,14 +15346,14 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1332</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>1333</v>
       </c>
       <c r="D33" t="s">
@@ -15619,14 +15366,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1334</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>1335</v>
       </c>
       <c r="D34" t="s">
@@ -15639,14 +15386,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1336</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>1337</v>
       </c>
       <c r="D35" t="s">
@@ -15659,14 +15406,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1338</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>1339</v>
       </c>
       <c r="D36" t="s">
@@ -15676,14 +15423,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1340</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>1341</v>
       </c>
       <c r="D37" t="s">
@@ -15693,14 +15440,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1342</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>1343</v>
       </c>
       <c r="D38" t="s">
@@ -15710,14 +15457,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1345</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>1344</v>
       </c>
       <c r="D39" t="s">
@@ -15727,14 +15474,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1347</v>
       </c>
       <c r="B40" t="s">
         <v>1412</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>1348</v>
       </c>
       <c r="D40" t="s">
@@ -15747,14 +15494,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1349</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>1350</v>
       </c>
       <c r="D41" t="s">
@@ -15764,14 +15511,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1351</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>1352</v>
       </c>
       <c r="D42" t="s">
@@ -15784,14 +15531,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1353</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>1354</v>
       </c>
       <c r="D43" t="s">
@@ -15804,14 +15551,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1355</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>1356</v>
       </c>
       <c r="D44" t="s">
@@ -15821,14 +15568,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1357</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" t="s">
         <v>1358</v>
       </c>
       <c r="D45" t="s">
@@ -15838,14 +15585,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1359</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s">
         <v>1360</v>
       </c>
       <c r="D46" t="s">
@@ -15858,14 +15605,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1361</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" t="s">
         <v>1362</v>
       </c>
       <c r="D47" t="s">
@@ -15875,14 +15622,14 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1364</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" t="s">
         <v>1365</v>
       </c>
       <c r="D48" t="s">
@@ -15895,14 +15642,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1366</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" t="s">
         <v>1367</v>
       </c>
       <c r="D49" t="s">
@@ -15915,14 +15662,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1368</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>1369</v>
       </c>
       <c r="D50" t="s">
@@ -15935,14 +15682,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1370</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>1371</v>
       </c>
       <c r="D51" t="s">
@@ -15952,14 +15699,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1372</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>1373</v>
       </c>
       <c r="D52" t="s">
@@ -15969,14 +15716,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1374</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s">
         <v>1375</v>
       </c>
       <c r="D53" t="s">
@@ -15989,14 +15736,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1376</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>1377</v>
       </c>
       <c r="D54" t="s">
@@ -16009,14 +15756,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1378</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>1379</v>
       </c>
       <c r="D55" t="s">
@@ -16029,14 +15776,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1380</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>1381</v>
       </c>
       <c r="D56" t="s">
@@ -16049,14 +15796,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1382</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>1383</v>
       </c>
       <c r="D57" t="s">
@@ -16066,14 +15813,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1384</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>1385</v>
       </c>
       <c r="D58" t="s">
@@ -16086,14 +15833,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1386</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s">
         <v>1387</v>
       </c>
       <c r="D59" t="s">
@@ -16103,14 +15850,14 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1388</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>1389</v>
       </c>
       <c r="D60" t="s">
@@ -16123,14 +15870,14 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1390</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>1391</v>
       </c>
       <c r="D61" t="s">
@@ -16143,14 +15890,14 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1394</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>1395</v>
       </c>
       <c r="D62" t="s">
@@ -16163,7 +15910,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1429</v>
       </c>
@@ -16180,7 +15927,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1431</v>
       </c>
@@ -16197,7 +15944,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1433</v>
       </c>
@@ -16214,7 +15961,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1435</v>
       </c>
@@ -16231,7 +15978,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1437</v>
       </c>
@@ -16248,7 +15995,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1439</v>
       </c>
@@ -16262,7 +16009,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1441</v>
       </c>
@@ -16279,7 +16026,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1443</v>
       </c>
@@ -16296,7 +16043,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1445</v>
       </c>
@@ -16310,7 +16057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1643</v>
       </c>
@@ -16327,7 +16074,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1448</v>
       </c>
@@ -16344,7 +16091,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1450</v>
       </c>
@@ -16361,7 +16108,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1452</v>
       </c>
@@ -16375,7 +16122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1454</v>
       </c>
@@ -16392,7 +16139,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1456</v>
       </c>
@@ -16409,7 +16156,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1458</v>
       </c>
@@ -16426,8 +16173,8 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>1460</v>
       </c>
       <c r="B81" t="s">
@@ -16443,7 +16190,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1462</v>
       </c>
@@ -16457,7 +16204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1464</v>
       </c>
@@ -16474,7 +16221,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1466</v>
       </c>
@@ -16491,7 +16238,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1468</v>
       </c>
@@ -16508,7 +16255,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1470</v>
       </c>
@@ -16525,7 +16272,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1472</v>
       </c>
@@ -16542,7 +16289,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1474</v>
       </c>
@@ -16559,7 +16306,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1476</v>
       </c>
@@ -16576,7 +16323,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1478</v>
       </c>
@@ -16593,7 +16340,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1480</v>
       </c>
@@ -16610,7 +16357,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1482</v>
       </c>
@@ -16627,7 +16374,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1484</v>
       </c>
@@ -16641,7 +16388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1486</v>
       </c>
@@ -16655,7 +16402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1488</v>
       </c>
@@ -16669,7 +16416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1490</v>
       </c>
@@ -16686,7 +16433,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1492</v>
       </c>
@@ -16703,7 +16450,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1494</v>
       </c>
@@ -16720,7 +16467,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1496</v>
       </c>
@@ -16737,7 +16484,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1498</v>
       </c>
@@ -16751,7 +16498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1500</v>
       </c>
@@ -16768,7 +16515,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1502</v>
       </c>
@@ -16785,7 +16532,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1504</v>
       </c>
@@ -16802,7 +16549,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1506</v>
       </c>
@@ -16819,7 +16566,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1508</v>
       </c>
@@ -16836,7 +16583,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1510</v>
       </c>
@@ -16850,7 +16597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1512</v>
       </c>
@@ -16867,7 +16614,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1514</v>
       </c>
@@ -16884,7 +16631,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1516</v>
       </c>
@@ -16898,7 +16645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1518</v>
       </c>
@@ -16915,7 +16662,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1520</v>
       </c>
@@ -16932,7 +16679,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1522</v>
       </c>
@@ -16949,7 +16696,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1524</v>
       </c>
@@ -16966,7 +16713,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1527</v>
       </c>
@@ -16980,7 +16727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1529</v>
       </c>
@@ -16997,7 +16744,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1530</v>
       </c>
@@ -17011,7 +16758,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1531</v>
       </c>
@@ -17028,7 +16775,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1532</v>
       </c>
@@ -17045,7 +16792,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1533</v>
       </c>
@@ -17062,7 +16809,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1534</v>
       </c>
@@ -17076,7 +16823,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1535</v>
       </c>
@@ -17090,7 +16837,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1536</v>
       </c>
@@ -17104,7 +16851,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1537</v>
       </c>
@@ -17118,7 +16865,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1538</v>
       </c>
@@ -17132,7 +16879,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1539</v>
       </c>
@@ -17149,7 +16896,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1541</v>
       </c>
@@ -17163,7 +16910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1542</v>
       </c>
@@ -17177,7 +16924,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1543</v>
       </c>
@@ -17191,7 +16938,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1544</v>
       </c>
@@ -17205,7 +16952,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1545</v>
       </c>
@@ -17222,7 +16969,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1546</v>
       </c>
@@ -17236,7 +16983,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1547</v>
       </c>
@@ -17250,7 +16997,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1548</v>
       </c>
@@ -17264,7 +17011,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1549</v>
       </c>
@@ -17278,7 +17025,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1550</v>
       </c>
@@ -17292,7 +17039,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1551</v>
       </c>
@@ -17306,7 +17053,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1552</v>
       </c>
@@ -17323,7 +17070,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1553</v>
       </c>
@@ -17337,7 +17084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1554</v>
       </c>
@@ -17354,7 +17101,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1555</v>
       </c>
@@ -17368,7 +17115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1556</v>
       </c>
@@ -17382,7 +17129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1557</v>
       </c>
@@ -17396,7 +17143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1558</v>
       </c>
@@ -17410,7 +17157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1559</v>
       </c>
@@ -17427,7 +17174,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1560</v>
       </c>
@@ -17444,7 +17191,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1561</v>
       </c>
@@ -17461,7 +17208,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1562</v>
       </c>
@@ -17478,7 +17225,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1563</v>
       </c>
@@ -17492,7 +17239,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1564</v>
       </c>
@@ -17506,7 +17253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1565</v>
       </c>
@@ -17523,7 +17270,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1566</v>
       </c>
@@ -17537,7 +17284,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1567</v>
       </c>
@@ -17554,7 +17301,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1568</v>
       </c>
@@ -17568,7 +17315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1569</v>
       </c>
@@ -17582,7 +17329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1570</v>
       </c>
@@ -17596,7 +17343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1571</v>
       </c>
@@ -17610,7 +17357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1572</v>
       </c>
@@ -17627,7 +17374,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1573</v>
       </c>
@@ -17641,7 +17388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1574</v>
       </c>
@@ -17655,7 +17402,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1575</v>
       </c>
@@ -17672,7 +17419,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1576</v>
       </c>
@@ -17686,7 +17433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1577</v>
       </c>
@@ -17700,7 +17447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1578</v>
       </c>
@@ -17714,7 +17461,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1579</v>
       </c>
@@ -17728,7 +17475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1580</v>
       </c>
@@ -17745,42 +17492,42 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1698</v>
       </c>
       <c r="B167" t="s">
         <v>234</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" t="s">
         <v>1699</v>
       </c>
       <c r="D167" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1701</v>
       </c>
       <c r="B168" t="s">
         <v>234</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" t="s">
         <v>1702</v>
       </c>
       <c r="D168" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1703</v>
       </c>
       <c r="B169" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" t="s">
         <v>1704</v>
       </c>
       <c r="D169" t="s">
@@ -17790,49 +17537,49 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1705</v>
       </c>
       <c r="B170" t="s">
         <v>234</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" t="s">
         <v>1706</v>
       </c>
       <c r="D170" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1708</v>
       </c>
       <c r="B171" t="s">
         <v>1412</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" t="s">
         <v>1707</v>
       </c>
       <c r="D171" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1709</v>
       </c>
       <c r="B172" t="s">
         <v>2024</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" t="s">
         <v>1710</v>
       </c>
       <c r="D172" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1711</v>
       </c>
@@ -17849,56 +17596,56 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1713</v>
       </c>
       <c r="B174" t="s">
         <v>2024</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" t="s">
         <v>1715</v>
       </c>
       <c r="D174" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1716</v>
       </c>
       <c r="B175" t="s">
         <v>2024</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" t="s">
         <v>1717</v>
       </c>
       <c r="D175" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1719</v>
       </c>
       <c r="B176" t="s">
         <v>2024</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" t="s">
         <v>1720</v>
       </c>
       <c r="D176" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1722</v>
       </c>
       <c r="B177" t="s">
         <v>2024</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" t="s">
         <v>1723</v>
       </c>
       <c r="D177" t="s">
@@ -17908,14 +17655,14 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1724</v>
       </c>
       <c r="B178" t="s">
         <v>2024</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" t="s">
         <v>1725</v>
       </c>
       <c r="D178" t="s">
@@ -17925,28 +17672,28 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1726</v>
       </c>
       <c r="B179" t="s">
         <v>2024</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" t="s">
         <v>1727</v>
       </c>
       <c r="D179" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1728</v>
       </c>
       <c r="B180" t="s">
         <v>2024</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" t="s">
         <v>1729</v>
       </c>
       <c r="D180" t="s">
@@ -17956,14 +17703,14 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1730</v>
       </c>
       <c r="B181" t="s">
         <v>2024</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" t="s">
         <v>1731</v>
       </c>
       <c r="D181" t="s">
@@ -17973,14 +17720,14 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1732</v>
       </c>
       <c r="B182" t="s">
         <v>2024</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" t="s">
         <v>1733</v>
       </c>
       <c r="D182" t="s">
@@ -17990,14 +17737,14 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1734</v>
       </c>
       <c r="B183" t="s">
         <v>2024</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" t="s">
         <v>1735</v>
       </c>
       <c r="D183" t="s">
@@ -18007,14 +17754,14 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1736</v>
       </c>
       <c r="B184" t="s">
         <v>2024</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" t="s">
         <v>1737</v>
       </c>
       <c r="D184" t="s">
@@ -18024,14 +17771,14 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1738</v>
       </c>
       <c r="B185" t="s">
         <v>2024</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" t="s">
         <v>1739</v>
       </c>
       <c r="D185" t="s">
@@ -18041,28 +17788,28 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1740</v>
       </c>
       <c r="B186" t="s">
         <v>2024</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" t="s">
         <v>1741</v>
       </c>
       <c r="D186" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1742</v>
       </c>
       <c r="B187" t="s">
         <v>2024</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" t="s">
         <v>1743</v>
       </c>
       <c r="D187" t="s">
@@ -18072,28 +17819,28 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1744</v>
       </c>
       <c r="B188" t="s">
         <v>2024</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" t="s">
         <v>1745</v>
       </c>
       <c r="D188" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1747</v>
       </c>
       <c r="B189" t="s">
         <v>2024</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" t="s">
         <v>1746</v>
       </c>
       <c r="D189" t="s">
@@ -18103,14 +17850,14 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1748</v>
       </c>
       <c r="B190" t="s">
         <v>2024</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" t="s">
         <v>1749</v>
       </c>
       <c r="D190" t="s">
@@ -18120,14 +17867,14 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1750</v>
       </c>
       <c r="B191" t="s">
         <v>1752</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" t="s">
         <v>1751</v>
       </c>
       <c r="D191" t="s">
@@ -18137,14 +17884,14 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1753</v>
       </c>
       <c r="B192" t="s">
         <v>2024</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" t="s">
         <v>1754</v>
       </c>
       <c r="D192" t="s">
@@ -18154,28 +17901,28 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1755</v>
       </c>
       <c r="B193" t="s">
         <v>2024</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" t="s">
         <v>1756</v>
       </c>
       <c r="D193" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1757</v>
       </c>
       <c r="B194" t="s">
         <v>2024</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" t="s">
         <v>1758</v>
       </c>
       <c r="D194" t="s">
@@ -18185,28 +17932,28 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1760</v>
       </c>
       <c r="B195" t="s">
         <v>2024</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" t="s">
         <v>1761</v>
       </c>
       <c r="D195" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1762</v>
       </c>
       <c r="B196" t="s">
         <v>2024</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" t="s">
         <v>1763</v>
       </c>
       <c r="D196" t="s">
@@ -18216,42 +17963,42 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1764</v>
       </c>
       <c r="B197" t="s">
         <v>2024</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" t="s">
         <v>1765</v>
       </c>
       <c r="D197" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1767</v>
       </c>
       <c r="B198" t="s">
         <v>2024</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" t="s">
         <v>1768</v>
       </c>
       <c r="D198" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>1770</v>
       </c>
       <c r="B199" t="s">
         <v>2024</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" t="s">
         <v>1771</v>
       </c>
       <c r="D199" t="s">
@@ -18261,14 +18008,14 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1773</v>
       </c>
       <c r="B200" t="s">
         <v>2024</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" t="s">
         <v>1774</v>
       </c>
       <c r="D200" t="s">
@@ -18278,14 +18025,14 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1775</v>
       </c>
       <c r="B201" t="s">
         <v>2024</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" t="s">
         <v>1776</v>
       </c>
       <c r="D201" t="s">
@@ -18295,14 +18042,14 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1777</v>
       </c>
       <c r="B202" t="s">
         <v>2024</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" t="s">
         <v>1778</v>
       </c>
       <c r="D202" t="s">
@@ -18312,14 +18059,14 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1779</v>
       </c>
       <c r="B203" t="s">
         <v>2024</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" t="s">
         <v>1780</v>
       </c>
       <c r="D203" t="s">
@@ -18329,14 +18076,14 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1781</v>
       </c>
       <c r="B204" t="s">
         <v>2024</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" t="s">
         <v>1782</v>
       </c>
       <c r="D204" t="s">
@@ -18346,14 +18093,14 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1784</v>
       </c>
       <c r="B205" t="s">
         <v>2024</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" t="s">
         <v>1785</v>
       </c>
       <c r="D205" t="s">
@@ -18363,14 +18110,14 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1786</v>
       </c>
       <c r="B206" t="s">
         <v>2024</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" t="s">
         <v>1787</v>
       </c>
       <c r="D206" t="s">
@@ -18380,14 +18127,14 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1788</v>
       </c>
       <c r="B207" t="s">
         <v>2024</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" t="s">
         <v>1789</v>
       </c>
       <c r="D207" t="s">
@@ -18397,14 +18144,14 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1790</v>
       </c>
       <c r="B208" t="s">
         <v>2024</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" t="s">
         <v>1791</v>
       </c>
       <c r="D208" t="s">
@@ -18414,28 +18161,28 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1792</v>
       </c>
       <c r="B209" t="s">
         <v>2024</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" t="s">
         <v>1793</v>
       </c>
       <c r="D209" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1794</v>
       </c>
       <c r="B210" t="s">
         <v>2024</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" t="s">
         <v>1795</v>
       </c>
       <c r="D210" t="s">
@@ -18445,14 +18192,14 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1796</v>
       </c>
       <c r="B211" t="s">
         <v>2024</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" t="s">
         <v>1797</v>
       </c>
       <c r="D211" t="s">
@@ -18462,14 +18209,14 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1798</v>
       </c>
       <c r="B212" t="s">
         <v>2024</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" t="s">
         <v>1799</v>
       </c>
       <c r="D212" t="s">
@@ -18479,56 +18226,56 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1800</v>
       </c>
       <c r="B213" t="s">
         <v>2024</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" t="s">
         <v>1801</v>
       </c>
       <c r="D213" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1802</v>
       </c>
       <c r="B214" t="s">
         <v>1804</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" t="s">
         <v>1803</v>
       </c>
       <c r="D214" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1805</v>
       </c>
       <c r="B215" t="s">
         <v>2024</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" t="s">
         <v>1806</v>
       </c>
       <c r="D215" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1807</v>
       </c>
       <c r="B216" t="s">
         <v>2024</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" t="s">
         <v>1808</v>
       </c>
       <c r="D216" t="s">
@@ -18538,14 +18285,14 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1809</v>
       </c>
       <c r="B217" t="s">
         <v>2024</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" t="s">
         <v>1810</v>
       </c>
       <c r="D217" t="s">
@@ -18555,14 +18302,14 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1811</v>
       </c>
       <c r="B218" t="s">
         <v>2024</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" t="s">
         <v>1812</v>
       </c>
       <c r="D218" t="s">
@@ -18572,42 +18319,42 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1813</v>
       </c>
       <c r="B219" t="s">
         <v>2024</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" t="s">
         <v>1814</v>
       </c>
       <c r="D219" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1815</v>
       </c>
       <c r="B220" t="s">
         <v>2024</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" t="s">
         <v>1816</v>
       </c>
       <c r="D220" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1817</v>
       </c>
       <c r="B221" t="s">
         <v>2024</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" t="s">
         <v>1818</v>
       </c>
       <c r="D221" t="s">
@@ -18617,28 +18364,28 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1819</v>
       </c>
       <c r="B222" t="s">
         <v>2024</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" t="s">
         <v>1820</v>
       </c>
       <c r="D222" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1821</v>
       </c>
       <c r="B223" t="s">
         <v>2024</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" t="s">
         <v>1822</v>
       </c>
       <c r="D223" t="s">
@@ -18648,42 +18395,42 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1823</v>
       </c>
       <c r="B224" t="s">
         <v>1825</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" t="s">
         <v>1824</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1826</v>
       </c>
       <c r="B225" t="s">
         <v>2024</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" t="s">
         <v>1827</v>
       </c>
       <c r="D225" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1828</v>
       </c>
       <c r="B226" t="s">
         <v>2024</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" t="s">
         <v>1829</v>
       </c>
       <c r="D226" t="s">
@@ -18693,14 +18440,14 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1830</v>
       </c>
       <c r="B227" t="s">
         <v>2024</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" t="s">
         <v>1831</v>
       </c>
       <c r="D227" t="s">
@@ -18710,14 +18457,14 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1833</v>
       </c>
       <c r="B228" t="s">
         <v>2024</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" t="s">
         <v>1834</v>
       </c>
       <c r="D228" t="s">
@@ -18727,14 +18474,14 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1835</v>
       </c>
       <c r="B229" t="s">
         <v>2024</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" t="s">
         <v>1836</v>
       </c>
       <c r="D229" t="s">
@@ -18744,14 +18491,14 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1837</v>
       </c>
       <c r="B230" t="s">
         <v>2024</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" t="s">
         <v>1838</v>
       </c>
       <c r="D230" t="s">
@@ -18761,42 +18508,42 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1839</v>
       </c>
       <c r="B231" t="s">
         <v>2024</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" t="s">
         <v>1840</v>
       </c>
       <c r="D231" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1842</v>
       </c>
       <c r="B232" t="s">
         <v>2024</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" t="s">
         <v>1843</v>
       </c>
       <c r="D232" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1844</v>
       </c>
       <c r="B233" t="s">
         <v>2024</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" t="s">
         <v>1845</v>
       </c>
       <c r="D233" t="s">
@@ -18806,14 +18553,14 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1846</v>
       </c>
       <c r="B234" t="s">
         <v>2024</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" t="s">
         <v>1847</v>
       </c>
       <c r="D234" t="s">
@@ -18823,70 +18570,70 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1848</v>
       </c>
       <c r="B235" t="s">
         <v>2024</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" t="s">
         <v>1849</v>
       </c>
       <c r="D235" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1850</v>
       </c>
       <c r="B236" t="s">
         <v>2024</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" t="s">
         <v>1851</v>
       </c>
       <c r="D236" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1852</v>
       </c>
       <c r="B237" t="s">
         <v>2024</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" t="s">
         <v>1853</v>
       </c>
       <c r="D237" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1854</v>
       </c>
       <c r="B238" t="s">
         <v>2024</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" t="s">
         <v>1855</v>
       </c>
       <c r="D238" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1856</v>
       </c>
       <c r="B239" t="s">
         <v>2024</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" t="s">
         <v>1857</v>
       </c>
       <c r="D239" t="s">
@@ -18896,14 +18643,14 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1858</v>
       </c>
       <c r="B240" t="s">
         <v>2024</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" t="s">
         <v>1859</v>
       </c>
       <c r="D240" t="s">
@@ -18913,28 +18660,28 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1860</v>
       </c>
       <c r="B241" t="s">
         <v>2024</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" t="s">
         <v>1861</v>
       </c>
       <c r="D241" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1862</v>
       </c>
       <c r="B242" t="s">
         <v>2024</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" t="s">
         <v>1863</v>
       </c>
       <c r="D242" t="s">
@@ -18944,28 +18691,28 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>1864</v>
       </c>
       <c r="B243" t="s">
         <v>2024</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" t="s">
         <v>1865</v>
       </c>
       <c r="D243" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1866</v>
       </c>
       <c r="B244" t="s">
         <v>2024</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" t="s">
         <v>1867</v>
       </c>
       <c r="D244" t="s">
@@ -18975,14 +18722,14 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1868</v>
       </c>
       <c r="B245" t="s">
         <v>2024</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" t="s">
         <v>1869</v>
       </c>
       <c r="D245" t="s">
@@ -18992,14 +18739,14 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1870</v>
       </c>
       <c r="B246" t="s">
         <v>2024</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" t="s">
         <v>1871</v>
       </c>
       <c r="D246" t="s">
@@ -19009,28 +18756,28 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1872</v>
       </c>
       <c r="B247" t="s">
         <v>2024</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C247" t="s">
         <v>1873</v>
       </c>
       <c r="D247" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1874</v>
       </c>
       <c r="B248" t="s">
         <v>2024</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C248" t="s">
         <v>1875</v>
       </c>
       <c r="D248" t="s">
@@ -19040,28 +18787,28 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1876</v>
       </c>
       <c r="B249" t="s">
         <v>2024</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C249" t="s">
         <v>1877</v>
       </c>
       <c r="D249" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1878</v>
       </c>
       <c r="B250" t="s">
         <v>2024</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C250" t="s">
         <v>1879</v>
       </c>
       <c r="D250" t="s">
@@ -19071,31 +18818,31 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1880</v>
       </c>
       <c r="B251" t="s">
         <v>2024</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C251" t="s">
         <v>1881</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D251" t="s">
         <v>1363</v>
       </c>
       <c r="E251" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1882</v>
       </c>
       <c r="B252" t="s">
         <v>2024</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" t="s">
         <v>1883</v>
       </c>
       <c r="D252" t="s">
@@ -19105,28 +18852,28 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1884</v>
       </c>
       <c r="B253" t="s">
         <v>2024</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C253" t="s">
         <v>1885</v>
       </c>
       <c r="D253" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2002</v>
       </c>
       <c r="B254" t="s">
         <v>2024</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C254" t="s">
         <v>1887</v>
       </c>
       <c r="D254" t="s">
@@ -19136,28 +18883,28 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1889</v>
       </c>
       <c r="B255" t="s">
         <v>2024</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="C255" t="s">
         <v>1890</v>
       </c>
       <c r="D255" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1891</v>
       </c>
       <c r="B256" t="s">
         <v>2024</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C256" t="s">
         <v>1892</v>
       </c>
       <c r="D256" t="s">
@@ -19167,56 +18914,56 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1893</v>
       </c>
       <c r="B257" t="s">
         <v>2024</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C257" t="s">
         <v>1894</v>
       </c>
       <c r="D257" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1895</v>
       </c>
       <c r="B258" t="s">
         <v>2024</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" t="s">
         <v>1896</v>
       </c>
       <c r="D258" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1897</v>
       </c>
       <c r="B259" t="s">
         <v>2024</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C259" t="s">
         <v>1898</v>
       </c>
       <c r="D259" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1899</v>
       </c>
       <c r="B260" t="s">
         <v>2024</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" t="s">
         <v>1900</v>
       </c>
       <c r="D260" t="s">
@@ -19226,14 +18973,14 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1901</v>
       </c>
       <c r="B261" t="s">
         <v>2024</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C261" t="s">
         <v>1902</v>
       </c>
       <c r="D261" t="s">
@@ -19243,14 +18990,14 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1903</v>
       </c>
       <c r="B262" t="s">
         <v>2024</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C262" t="s">
         <v>1904</v>
       </c>
       <c r="D262" t="s">
@@ -19260,14 +19007,14 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1905</v>
       </c>
       <c r="B263" t="s">
         <v>2024</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" t="s">
         <v>1906</v>
       </c>
       <c r="D263" t="s">
@@ -19277,14 +19024,14 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1907</v>
       </c>
       <c r="B264" t="s">
         <v>2024</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" t="s">
         <v>1908</v>
       </c>
       <c r="D264" t="s">
@@ -19294,42 +19041,42 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1909</v>
       </c>
       <c r="B265" t="s">
         <v>2024</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" t="s">
         <v>1910</v>
       </c>
       <c r="D265" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1911</v>
       </c>
       <c r="B266" t="s">
         <v>2024</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" t="s">
         <v>1912</v>
       </c>
       <c r="D266" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1913</v>
       </c>
       <c r="B267" t="s">
         <v>2024</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" t="s">
         <v>1914</v>
       </c>
       <c r="D267" t="s">
@@ -19339,14 +19086,14 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1915</v>
       </c>
       <c r="B268" t="s">
         <v>2024</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C268" t="s">
         <v>1916</v>
       </c>
       <c r="D268" t="s">
@@ -19356,14 +19103,14 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1917</v>
       </c>
       <c r="B269" t="s">
         <v>2024</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C269" t="s">
         <v>1918</v>
       </c>
       <c r="D269" t="s">
@@ -19373,42 +19120,42 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1919</v>
       </c>
       <c r="B270" t="s">
         <v>2024</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C270" t="s">
         <v>1920</v>
       </c>
       <c r="D270" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1921</v>
       </c>
       <c r="B271" t="s">
         <v>2024</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C271" t="s">
         <v>1922</v>
       </c>
       <c r="D271" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1923</v>
       </c>
       <c r="B272" t="s">
         <v>2024</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" t="s">
         <v>1924</v>
       </c>
       <c r="D272" t="s">
@@ -19418,14 +19165,14 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1925</v>
       </c>
       <c r="B273" t="s">
         <v>2024</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C273" t="s">
         <v>1926</v>
       </c>
       <c r="D273" t="s">
@@ -19435,14 +19182,14 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1927</v>
       </c>
       <c r="B274" t="s">
         <v>2015</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" t="s">
         <v>1928</v>
       </c>
       <c r="D274" t="s">
@@ -19452,14 +19199,14 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1930</v>
       </c>
       <c r="B275" t="s">
         <v>2024</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C275" t="s">
         <v>1931</v>
       </c>
       <c r="D275" t="s">
@@ -19469,14 +19216,14 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2018</v>
       </c>
       <c r="B276" t="s">
         <v>2024</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C276" t="s">
         <v>1932</v>
       </c>
       <c r="D276" t="s">
@@ -19486,31 +19233,31 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1933</v>
       </c>
       <c r="B277" t="s">
         <v>2199</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C277" t="s">
         <v>1934</v>
       </c>
-      <c r="D277" s="6" t="s">
+      <c r="D277" t="s">
         <v>2200</v>
       </c>
       <c r="E277" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1935</v>
       </c>
       <c r="B278" t="s">
         <v>2024</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C278" t="s">
         <v>1936</v>
       </c>
       <c r="D278" t="s">
@@ -19520,14 +19267,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1937</v>
       </c>
       <c r="B279" t="s">
         <v>2024</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C279" t="s">
         <v>1938</v>
       </c>
       <c r="D279" t="s">
@@ -19537,14 +19284,14 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1939</v>
       </c>
       <c r="B280" t="s">
         <v>2024</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C280" t="s">
         <v>1940</v>
       </c>
       <c r="D280" t="s">
@@ -19554,14 +19301,14 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1941</v>
       </c>
       <c r="B281" t="s">
         <v>2024</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C281" t="s">
         <v>1942</v>
       </c>
       <c r="D281" t="s">
@@ -19571,70 +19318,70 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1943</v>
       </c>
       <c r="B282" t="s">
         <v>2024</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C282" t="s">
         <v>1944</v>
       </c>
       <c r="D282" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1945</v>
       </c>
       <c r="B283" t="s">
         <v>2024</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C283" t="s">
         <v>1946</v>
       </c>
       <c r="D283" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1947</v>
       </c>
       <c r="B284" t="s">
         <v>2024</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C284" t="s">
         <v>1948</v>
       </c>
       <c r="D284" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1949</v>
       </c>
       <c r="B285" t="s">
         <v>2024</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C285" t="s">
         <v>1950</v>
       </c>
       <c r="D285" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2025</v>
       </c>
       <c r="B287" t="s">
         <v>235</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C287" t="s">
         <v>2026</v>
       </c>
       <c r="D287" t="s">
@@ -19647,28 +19394,28 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>2027</v>
       </c>
       <c r="B288" t="s">
         <v>235</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C288" t="s">
         <v>2028</v>
       </c>
       <c r="D288" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>2029</v>
       </c>
       <c r="B289" t="s">
         <v>235</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" t="s">
         <v>2030</v>
       </c>
       <c r="D289" t="s">
@@ -19678,14 +19425,14 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2031</v>
       </c>
       <c r="B290" t="s">
         <v>235</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" t="s">
         <v>2032</v>
       </c>
       <c r="D290" t="s">
@@ -19695,42 +19442,42 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2033</v>
       </c>
       <c r="B291" t="s">
         <v>235</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C291" t="s">
         <v>2034</v>
       </c>
       <c r="D291" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2035</v>
       </c>
       <c r="B292" t="s">
         <v>235</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" t="s">
         <v>2036</v>
       </c>
       <c r="D292" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2037</v>
       </c>
       <c r="B293" t="s">
         <v>235</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C293" t="s">
         <v>2038</v>
       </c>
       <c r="D293" t="s">
@@ -19740,14 +19487,14 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2039</v>
       </c>
       <c r="B294" t="s">
         <v>235</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C294" t="s">
         <v>2040</v>
       </c>
       <c r="D294" t="s">
@@ -19757,14 +19504,14 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2042</v>
       </c>
       <c r="B295" t="s">
         <v>235</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C295" t="s">
         <v>2043</v>
       </c>
       <c r="D295" t="s">
@@ -19774,14 +19521,14 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2044</v>
       </c>
       <c r="B296" t="s">
         <v>235</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C296" t="s">
         <v>2045</v>
       </c>
       <c r="D296" t="s">
@@ -19791,14 +19538,14 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2046</v>
       </c>
       <c r="B297" t="s">
         <v>235</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C297" t="s">
         <v>2047</v>
       </c>
       <c r="D297" t="s">
@@ -19808,14 +19555,14 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2048</v>
       </c>
       <c r="B298" t="s">
         <v>235</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C298" t="s">
         <v>2049</v>
       </c>
       <c r="D298" t="s">
@@ -19825,14 +19572,14 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2050</v>
       </c>
       <c r="B299" t="s">
         <v>235</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C299" t="s">
         <v>2051</v>
       </c>
       <c r="D299" t="s">
@@ -19842,42 +19589,42 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1557</v>
       </c>
       <c r="B300" t="s">
         <v>235</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" t="s">
         <v>2052</v>
       </c>
       <c r="D300" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2053</v>
       </c>
       <c r="B301" t="s">
         <v>235</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C301" t="s">
         <v>2054</v>
       </c>
       <c r="D301" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2055</v>
       </c>
       <c r="B302" t="s">
         <v>2170</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C302" t="s">
         <v>2056</v>
       </c>
       <c r="D302" t="s">
@@ -19887,14 +19634,14 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2057</v>
       </c>
       <c r="B303" t="s">
         <v>235</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C303" t="s">
         <v>2058</v>
       </c>
       <c r="D303" t="s">
@@ -19904,7 +19651,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2059</v>
       </c>
@@ -19921,7 +19668,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2061</v>
       </c>
@@ -19932,21 +19679,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2062</v>
       </c>
       <c r="B306" t="s">
         <v>235</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C306" t="s">
         <v>2063</v>
       </c>
       <c r="D306" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>2065</v>
       </c>
@@ -19963,7 +19710,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2067</v>
       </c>
@@ -19977,14 +19724,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2069</v>
       </c>
       <c r="B309" t="s">
         <v>235</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C309" t="s">
         <v>2070</v>
       </c>
       <c r="D309" t="s">
@@ -19994,7 +19741,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2071</v>
       </c>
@@ -20011,7 +19758,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2073</v>
       </c>
@@ -20025,56 +19772,56 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2075</v>
       </c>
       <c r="B312" t="s">
         <v>235</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" t="s">
         <v>2076</v>
       </c>
       <c r="D312" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2077</v>
       </c>
       <c r="B313" t="s">
         <v>235</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C313" t="s">
         <v>2078</v>
       </c>
       <c r="D313" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2079</v>
       </c>
       <c r="B314" t="s">
         <v>235</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" t="s">
         <v>2080</v>
       </c>
       <c r="D314" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2081</v>
       </c>
       <c r="B315" t="s">
         <v>235</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C315" t="s">
         <v>2082</v>
       </c>
       <c r="D315" t="s">
@@ -20084,28 +19831,28 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2083</v>
       </c>
       <c r="B316" t="s">
         <v>235</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" t="s">
         <v>2084</v>
       </c>
       <c r="D316" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2085</v>
       </c>
       <c r="B317" t="s">
         <v>235</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" t="s">
         <v>2084</v>
       </c>
       <c r="D317" t="s">
@@ -20115,28 +19862,28 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2086</v>
       </c>
       <c r="B318" t="s">
         <v>235</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" t="s">
         <v>2087</v>
       </c>
       <c r="D318" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2088</v>
       </c>
       <c r="B319" t="s">
         <v>235</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" t="s">
         <v>2089</v>
       </c>
       <c r="D319" t="s">
@@ -20146,14 +19893,14 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>2090</v>
       </c>
       <c r="B320" t="s">
         <v>235</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" t="s">
         <v>2091</v>
       </c>
       <c r="D320" t="s">
@@ -20163,35 +19910,35 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2092</v>
       </c>
       <c r="B321" t="s">
         <v>235</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" t="s">
         <v>2093</v>
       </c>
       <c r="D321" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2094</v>
       </c>
       <c r="B322" t="s">
         <v>235</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C322" t="s">
         <v>2095</v>
       </c>
       <c r="D322" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>2096</v>
       </c>
@@ -20202,14 +19949,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>2097</v>
       </c>
       <c r="B324" t="s">
         <v>235</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" t="s">
         <v>2098</v>
       </c>
       <c r="D324" t="s">
@@ -20219,35 +19966,35 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>2099</v>
       </c>
       <c r="B325" t="s">
         <v>235</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C325" t="s">
         <v>2100</v>
       </c>
       <c r="D325" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>2101</v>
       </c>
       <c r="B326" t="s">
         <v>235</v>
       </c>
-      <c r="C326" s="6" t="s">
+      <c r="C326" t="s">
         <v>2102</v>
       </c>
       <c r="D326" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2103</v>
       </c>
@@ -20264,35 +20011,35 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>2105</v>
       </c>
       <c r="B328" t="s">
         <v>235</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" t="s">
         <v>2106</v>
       </c>
       <c r="D328" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2107</v>
       </c>
       <c r="B329" t="s">
         <v>235</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C329" t="s">
         <v>2108</v>
       </c>
       <c r="D329" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>2109</v>
       </c>
@@ -20306,28 +20053,28 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>2111</v>
       </c>
       <c r="B331" t="s">
         <v>235</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C331" t="s">
         <v>2112</v>
       </c>
       <c r="D331" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2113</v>
       </c>
       <c r="B332" t="s">
         <v>235</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C332" t="s">
         <v>2114</v>
       </c>
       <c r="D332" t="s">
@@ -20337,14 +20084,14 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>2115</v>
       </c>
       <c r="B333" t="s">
         <v>235</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C333" t="s">
         <v>2116</v>
       </c>
       <c r="D333" t="s">
@@ -20354,14 +20101,14 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>2117</v>
       </c>
       <c r="B334" t="s">
         <v>235</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" t="s">
         <v>2118</v>
       </c>
       <c r="D334" t="s">
@@ -20371,35 +20118,35 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>2119</v>
       </c>
       <c r="B335" t="s">
         <v>235</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C335" t="s">
         <v>2120</v>
       </c>
       <c r="D335" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>2121</v>
       </c>
       <c r="B336" t="s">
         <v>235</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C336" t="s">
         <v>2122</v>
       </c>
       <c r="D336" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2123</v>
       </c>
@@ -20416,21 +20163,21 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>2125</v>
       </c>
       <c r="B338" t="s">
         <v>235</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C338" t="s">
         <v>2126</v>
       </c>
       <c r="D338" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>2127</v>
       </c>
@@ -20447,28 +20194,28 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2129</v>
       </c>
       <c r="B340" t="s">
         <v>235</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C340" t="s">
         <v>2130</v>
       </c>
       <c r="D340" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2131</v>
       </c>
       <c r="B341" t="s">
         <v>235</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" t="s">
         <v>2132</v>
       </c>
       <c r="D341" t="s">
@@ -20478,7 +20225,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2133</v>
       </c>
@@ -20495,7 +20242,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2135</v>
       </c>
@@ -20509,7 +20256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>2137</v>
       </c>
@@ -20526,14 +20273,14 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2139</v>
       </c>
       <c r="B345" t="s">
         <v>235</v>
       </c>
-      <c r="C345" s="6" t="s">
+      <c r="C345" t="s">
         <v>2140</v>
       </c>
       <c r="D345" t="s">
@@ -20543,14 +20290,14 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>2141</v>
       </c>
       <c r="B346" t="s">
         <v>235</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C346" t="s">
         <v>2142</v>
       </c>
       <c r="D346" t="s">
@@ -20560,7 +20307,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>2143</v>
       </c>
@@ -20574,7 +20321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>2145</v>
       </c>
@@ -20588,7 +20335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2147</v>
       </c>
@@ -20605,28 +20352,28 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>2149</v>
       </c>
       <c r="B350" t="s">
         <v>235</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" t="s">
         <v>2150</v>
       </c>
       <c r="D350" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>2151</v>
       </c>
       <c r="B351" t="s">
         <v>235</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" t="s">
         <v>2152</v>
       </c>
       <c r="D351" t="s">
@@ -20636,14 +20383,14 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2153</v>
       </c>
       <c r="B352" t="s">
         <v>235</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" t="s">
         <v>2154</v>
       </c>
       <c r="D352" t="s">
@@ -20653,7 +20400,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2155</v>
       </c>
@@ -20667,7 +20414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>2157</v>
       </c>
